--- a/data/trans_dic/P42C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R2-Estudios-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8516132954149096</v>
+        <v>0.8492350174347312</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9446978863344518</v>
+        <v>0.9445441869130221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9165949630223685</v>
+        <v>0.9171460908307317</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8940465374789188</v>
+        <v>0.8942231699023951</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9770596124653004</v>
+        <v>0.9766502958568103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9542685420918727</v>
+        <v>0.9550692293017559</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8578122882975552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7745842098025693</v>
+        <v>0.774584209802569</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7205277329887639</v>
+        <v>0.7192969412279476</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8404214515540955</v>
+        <v>0.8379128192089874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7517560064621808</v>
+        <v>0.7516428182315917</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7687308031759732</v>
+        <v>0.7714089956126474</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8762452940928562</v>
+        <v>0.8746614332516982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7946022196918514</v>
+        <v>0.7974513425455049</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4904173138553387</v>
+        <v>0.4923256787626317</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5873652502229789</v>
+        <v>0.588406926840488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4816154533991608</v>
+        <v>0.4729060278500352</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5956442170827934</v>
+        <v>0.6051724363436556</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6762721456981606</v>
+        <v>0.6716852357969729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5631303276678702</v>
+        <v>0.5621313028069455</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8452476108813143</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7572011083553379</v>
+        <v>0.7572011083553377</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7421535572350129</v>
+        <v>0.743646282085796</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8310477998928072</v>
+        <v>0.8313760001578496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7409345277136373</v>
+        <v>0.740391050632185</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7775487684946227</v>
+        <v>0.7783882004992451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8597160756610152</v>
+        <v>0.8600296908181745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7743315389771674</v>
+        <v>0.771780903671612</v>
       </c>
     </row>
     <row r="16">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>827046</v>
+        <v>824736</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>654268</v>
+        <v>654162</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>428003</v>
+        <v>428260</v>
       </c>
     </row>
     <row r="7">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>868255</v>
+        <v>868427</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>676681</v>
+        <v>676398</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>445595</v>
+        <v>445969</v>
       </c>
     </row>
     <row r="8">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>981916</v>
+        <v>980239</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1337874</v>
+        <v>1333880</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>896263</v>
+        <v>896128</v>
       </c>
     </row>
     <row r="11">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1047606</v>
+        <v>1051256</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1394902</v>
+        <v>1392381</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>947345</v>
+        <v>950742</v>
       </c>
     </row>
     <row r="12">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>197706</v>
+        <v>198475</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>283058</v>
+        <v>283560</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>215452</v>
+        <v>211556</v>
       </c>
     </row>
     <row r="15">
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>240127</v>
+        <v>243968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>325903</v>
+        <v>323693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>251918</v>
+        <v>251471</v>
       </c>
     </row>
     <row r="16">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2031322</v>
+        <v>2035407</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2299001</v>
+        <v>2299909</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1560799</v>
+        <v>1559654</v>
       </c>
     </row>
     <row r="19">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2128201</v>
+        <v>2130498</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2378308</v>
+        <v>2379176</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1631151</v>
+        <v>1625778</v>
       </c>
     </row>
     <row r="20">
